--- a/Schedule/Sriver 남은주, 서유진, 안덕규.xlsx
+++ b/Schedule/Sriver 남은주, 서유진, 안덕규.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F9F03-0379-4981-B33F-8BFE6163DEDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5206D-86F4-4845-A567-A15B73EF6B35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차(2019-03-13)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>1. 실시 및 예정 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>주간 진도 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀 길 동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,6 +145,56 @@
   </si>
   <si>
     <t>주차관리시스템(Sriver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* RC카 2대 전부 배선 작업완료
+* 아두이노 수정완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* RC카 앞쪽이 가벼워서 헛바퀴도는 문제있음
+* RC카 좌표 입력 함수 구현해야함(프로토 이후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 안드로이드 버튼 레이아웃 및 작동 변경 완료
+* 주차관리App 로그인 및 웹서버(cafe24) 연결완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 주차관리App 로그인 및 회원가입, 아이디 중복 php 및 Test
+* 주차관리App 주차 칸 Draw함수 구현중(현재 맨 윗줄은 출력됨)(y좌표 보정해야함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 선택한 좌표 색깔 인식 함수 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 웹서버(cafe24)와 연결
+* 엣지(주차 공간) 인식 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스키마(USER, PARKINGPOINT) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 작업 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* RC카 트럭 틀 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* RC카 승용차 틀 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 차량 점유 및 예약 DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -594,10 +640,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -618,80 +664,80 @@
     </row>
     <row r="6" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -737,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -759,6 +805,9 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
@@ -779,58 +828,123 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="207" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="2:5" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
     <row r="10" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{0C77A6CA-716D-4928-9B24-44BA48D8FD37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Schedule/Sriver 남은주, 서유진, 안덕규.xlsx
+++ b/Schedule/Sriver 남은주, 서유진, 안덕규.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5206D-86F4-4845-A567-A15B73EF6B35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F323DC-74CB-42E3-8770-3EEE53202A40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차(2019-03-13)" sheetId="1" r:id="rId1"/>
-    <sheet name="2주차(2019-02-xx)" sheetId="2" r:id="rId2"/>
+    <sheet name="2주차(2019-03-20)" sheetId="2" r:id="rId2"/>
+    <sheet name="3주차(2019-03-27)" sheetId="3" r:id="rId3"/>
+    <sheet name="4주차(2019-04-03)" sheetId="4" r:id="rId4"/>
+    <sheet name="5주차(2019-04-10)" sheetId="5" r:id="rId5"/>
+    <sheet name="6주차(2019-04-17)" sheetId="6" r:id="rId6"/>
+    <sheet name="7주차(2019-04-24)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>1. 실시 및 예정 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +200,144 @@
   </si>
   <si>
     <t>* 차량 점유 및 예약 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 디자인 변경
+* user 모듈과 병합해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* opencv 모듈 개발 지연으로 인해 
+  테스트 코드로 DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 선택지점 화소 검출 완료
+* 원근 왜곡 보정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 세트장 재설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* user car 테이블 삭제
+* member 테이블에 e-mail, car, gender 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 중간 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 세트장에서 rc카의 바퀴가 헛돔.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 모터 드라이버 2개로 사용(앞 뒤 바퀴 전체 사용)
+* mapping 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 주행 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 원근 왜곡 보정 삭제
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 모폴로지
+* 관심 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* linear 대신 relative layout으로 변경
+* 스라이버 텍스트 뷰 동적 할당 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* parking point php와 parking point add php 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 라벨링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 라벨링
+* opencv - DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 주차 칸 출력 테스트
+* RC 카 앱 버튼 디자인 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 주차 칸 출력 테스트
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 관심영역 대신 warp()으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 2번째 차 모터 드라이버 구매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* parking point 스키마 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 주차 칸 출력 테스트
+* 점유값을 hint로 숨겨둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 로그인 시 예약 주차 칸 칼럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 주행 테스트 중 건전지 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* opencv - DB 연결
+* 코드 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 앱 주차 칸 디자인 변경
+* trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* RC 카 두번째 차 다시 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* trace
+* 이미지를 동영상으로 변경(시작 부분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* opencv - DB 연결
+* Step 단위로 모듈화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 주차 칸 출력 테스트 완료
+* RC 카 앱 버튼 디자인 변경
+* 로그인과 main 병합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 동영상 촬영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +762,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -785,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -947,4 +1090,793 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812ED8E-0CA7-494D-86D1-2EDD4E38F052}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="31.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" customWidth="1"/>
+    <col min="4" max="4" width="36.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{6EF283E8-430D-47A6-8EA5-FE5136C5EE6E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2756DA-166A-42B5-BD58-214FAEFEEE3B}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{E859E821-D67C-49C6-9443-539148A3CAF3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD96013B-5AAF-414B-8D80-A47034948377}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="31.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="32.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{DA3C21F8-98F3-4D08-B4C5-A26D31860846}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AD7005-D101-4727-B27B-1E070DDF5474}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{1C04329C-F267-444B-A1A5-86F4AF65C235}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187B27BD-4367-41E4-ABCD-5A53210C2C3E}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{83FF7B9D-73F0-4BC1-940B-217BDBAC7AA1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>